--- a/data/long_bre/P29-Edad-long_bre.xlsx
+++ b/data/long_bre/P29-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 16,69</t>
+          <t>-16,84; 14,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 12,45</t>
+          <t>-11,08; 13,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 66,84</t>
+          <t>-12,27; 20,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 56,93</t>
+          <t>-36,39; 52,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 66,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-32,48; 110,3</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>-15,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-31,58%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 15,05</t>
+          <t>-10,43; 16,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 12,2</t>
+          <t>-13,62; 14,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 58,98</t>
+          <t>-32,43; 2,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 35,94</t>
+          <t>-24,83; 65,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; 45,48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-54,41; 4,64</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>-6,8%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-5,8%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>50,96%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 8,49</t>
+          <t>-16,59; 11,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 15,21</t>
+          <t>-16,18; 10,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 39,49</t>
+          <t>-4,07; 24,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 73,9</t>
+          <t>-45,6; 53,8</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-40,85; 53,24</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-16,02; 192,09</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-43,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,7; -4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,02; -11,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 39,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,67</t>
+          <t>-21,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>-22,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>-45,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-50,19%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 28,72</t>
+          <t>-38,83; -7,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 12,97</t>
+          <t>-11,9; 8,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 127,48</t>
+          <t>-44,64; -5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 38,0</t>
+          <t>-65,97; -17,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-35,03; 41,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-74,51; -18,97</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>54,82%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>65,61%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 16,36</t>
+          <t>2,66; 29,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 12,61</t>
+          <t>-15,4; 12,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 89,37</t>
+          <t>5,22; 33,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 58,33</t>
+          <t>6,24; 129,12</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-30,2; 37,48</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 168,85</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,81%</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>19,34%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 5,7</t>
+          <t>-6,13; 17,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 8,8</t>
+          <t>-10,68; 12,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 18,63</t>
+          <t>-9,61; 19,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 40,35</t>
+          <t>-21,0; 104,22</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-28,07; 55,04</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-26,26; 110,18</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 9,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 9,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 27,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 23,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>-15,86%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-8,69%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 14,38</t>
+          <t>-18,77; 3,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 10,28</t>
+          <t>-10,5; 8,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 85,06</t>
+          <t>-13,89; 6,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 49,99</t>
+          <t>-40,63; 12,17</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-30,39; 35,13</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-33,31; 23,0</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 3,71</t>
+          <t>-9,66; 11,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 8,99</t>
+          <t>-11,92; 8,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 14,96</t>
+          <t>-1,23; 20,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 36,44</t>
+          <t>-20,25; 35,43</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-22,99; 21,19</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 63,49</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-24,71%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 11,84</t>
+          <t>-4,97; 14,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 8,98</t>
+          <t>-8,09; 9,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 32,3</t>
+          <t>-18,4; 2,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 25,83</t>
+          <t>-16,73; 87,59</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-25,37; 51,06</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-51,99; 12,23</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 51,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 28,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>-13,26%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>48,18%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 5,46</t>
+          <t>-12,57; 5,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 17,23</t>
+          <t>-8,17; 7,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 16,49</t>
+          <t>2,51; 21,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 77,53</t>
+          <t>-36,23; 19,86</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-25,28; 28,36</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 110,01</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,56</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,51%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,48; 23,59</t>
+          <t>-8,49; 12,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 7,88</t>
+          <t>-8,16; 9,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,38; 94,41</t>
+          <t>-12,33; 8,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 21,93</t>
+          <t>-17,62; 33,71</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; 28,71</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-27,13; 27,11</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-18,25%</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-18,22%</t>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,74%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-26,74%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 4,02</t>
+          <t>-5,97; 12,18</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 2,53</t>
+          <t>-8,98; 8,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 17,49</t>
+          <t>-22,77; 0,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 9,24</t>
+          <t>-19,45; 53,38</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-25,42; 28,64</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-51,89; 1,04</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 15,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1,25; 24,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 89,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>3,93; 146,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-9,79</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-16,45%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>30,46%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-25,4%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 5,4</t>
+          <t>-18,35; 4,68</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 0,95</t>
+          <t>-0,62; 17,46</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 13,91</t>
+          <t>-20,73; 2,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 2,34</t>
+          <t>-40,42; 15,07</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 80,84</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-50,45; 9,84</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>36,19%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-5,69%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 20,16</t>
+          <t>0,73; 21,95</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 9,36</t>
+          <t>-12,07; 7,28</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 87,96</t>
+          <t>-5,53; 21,2</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 31,73</t>
+          <t>1,64; 82,29</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 22,25</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 68,13</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-14,03%</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>-15,93%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-17,31%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 0,03</t>
+          <t>-15,23; 5,06</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 7,03</t>
+          <t>-15,03; 2,98</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 0,04</t>
+          <t>-10,58; 11,28</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 28,58</t>
+          <t>-42,88; 21,08</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-39,53; 10,26</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-33,23; 51,78</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 23,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 5,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 6,49</t>
+          <t>-8,17; 14,66</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,68</t>
+          <t>-2,84; 18,0</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 26,97</t>
+          <t>-7,75; 20,0</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 13,12</t>
+          <t>-26,53; 75,52</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 98,08</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-22,82; 95,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-12,1</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-8,26%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-17,86%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-26,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 9,5</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 3,51</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-25,8; 4,29</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-39,27; 28,25</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-38,16; 10,59</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-48,02; 11,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-12,82; 14,47</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 10,65</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 19,91</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-34,45; 59,24</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-27,84; 36,68</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-24,15; 104,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-5,81</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-16,25%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-11,32; -0,69</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 6,97</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 3,8</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-28,61; -2,38</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 28,03</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-23,17; 13,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 9,17</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 2,74</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 7,06</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 26,64</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-14,92; 7,02</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 20,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-2,29%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 6,01</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 3,86</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 5,47</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 24,39</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 13,84</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-16,43; 21,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
